--- a/banfei/balance.xlsx
+++ b/banfei/balance.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zsx\Documents\gitee\banfei\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zsx\Documents\gitee\minecraft\zhangshenxing.github.io\banfei\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C27DDC86-EB8E-49F3-A518-8AF3D9D8B942}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{300C0D87-7DA5-455D-A877-E10628A10530}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="97">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -395,6 +395,22 @@
   </si>
   <si>
     <t>购买一体式3格文件架2个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收取班费200元×31人=6200元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买定制T恤34件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄语秋妈妈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买拉花彩条银色6条绿色4条</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -839,10 +855,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E90"/>
+  <dimension ref="A1:E94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E82" sqref="E82:E84"/>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G94" sqref="G94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.95"/>
@@ -2285,26 +2301,80 @@
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.95">
-      <c r="B85" s="2"/>
-      <c r="C85" s="10"/>
+      <c r="A85" s="6">
+        <v>45427</v>
+      </c>
+      <c r="B85" s="2">
+        <v>6200</v>
+      </c>
+      <c r="C85" s="10">
+        <v>6092.2499999999982</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.95">
-      <c r="B86" s="2"/>
-      <c r="C86" s="10"/>
+      <c r="A86" s="6">
+        <v>45440</v>
+      </c>
+      <c r="B86" s="2">
+        <v>-465</v>
+      </c>
+      <c r="C86" s="10">
+        <v>5627.2499999999982</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.95">
-      <c r="B87" s="2"/>
-      <c r="C87" s="10"/>
+      <c r="A87" s="6">
+        <v>45436</v>
+      </c>
+      <c r="B87" s="2">
+        <v>-30</v>
+      </c>
+      <c r="C87" s="10">
+        <v>5597.2499999999982</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E87" s="9" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A88" s="6"/>
       <c r="B88" s="2"/>
       <c r="C88" s="10"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A89" s="6"/>
       <c r="B89" s="2"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A90" s="6"/>
       <c r="B90" s="2"/>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A91" s="6"/>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A92" s="6"/>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A93" s="6"/>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A94" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/banfei/balance.xlsx
+++ b/banfei/balance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zsx\Documents\gitee\minecraft\zhangshenxing.github.io\banfei\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{300C0D87-7DA5-455D-A877-E10628A10530}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1866B589-7E34-4C70-9C1C-1A81A74F068F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="104">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -411,6 +411,34 @@
   </si>
   <si>
     <t>购买拉花彩条银色6条绿色4条</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买水气球5包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买冲浪板1个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买青蛙蝌蚪苗20送6个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买蝌蚪饲料500克</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买李子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买西瓜+水蜜桃+油桃+红桃+荔枝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买8K边框卡纸20张</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -855,10 +883,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E94"/>
+  <dimension ref="A1:E101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G94" sqref="G94"/>
+    <sheetView tabSelected="1" topLeftCell="A82" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A88" sqref="A88:E94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.95"/>
@@ -2352,29 +2380,158 @@
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.95">
-      <c r="A88" s="6"/>
-      <c r="B88" s="2"/>
-      <c r="C88" s="10"/>
+      <c r="A88" s="6">
+        <v>45461</v>
+      </c>
+      <c r="B88" s="2">
+        <v>-19.8</v>
+      </c>
+      <c r="C88" s="10">
+        <f>C87+B88</f>
+        <v>5577.449999999998</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E88" s="4" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.95">
-      <c r="A89" s="6"/>
-      <c r="B89" s="2"/>
+      <c r="A89" s="6">
+        <v>45461</v>
+      </c>
+      <c r="B89" s="2">
+        <v>-20.8</v>
+      </c>
+      <c r="C89" s="10">
+        <f t="shared" ref="C89:C94" si="0">C88+B89</f>
+        <v>5556.6499999999978</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E89" s="4" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.95">
-      <c r="A90" s="6"/>
-      <c r="B90" s="2"/>
+      <c r="A90" s="6">
+        <v>45461</v>
+      </c>
+      <c r="B90" s="2">
+        <v>-39.9</v>
+      </c>
+      <c r="C90" s="10">
+        <f t="shared" si="0"/>
+        <v>5516.7499999999982</v>
+      </c>
+      <c r="D90" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E90" s="4" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.95">
-      <c r="A91" s="6"/>
+      <c r="A91" s="6">
+        <v>45461</v>
+      </c>
+      <c r="B91" s="2">
+        <v>-28</v>
+      </c>
+      <c r="C91" s="10">
+        <f t="shared" si="0"/>
+        <v>5488.7499999999982</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E91" s="4" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.95">
-      <c r="A92" s="6"/>
+      <c r="A92" s="6">
+        <v>45463</v>
+      </c>
+      <c r="B92" s="2">
+        <v>-87.6</v>
+      </c>
+      <c r="C92" s="10">
+        <f t="shared" si="0"/>
+        <v>5401.1499999999978</v>
+      </c>
+      <c r="D92" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.95">
-      <c r="A93" s="6"/>
+      <c r="A93" s="6">
+        <v>45463</v>
+      </c>
+      <c r="B93" s="2">
+        <v>-17</v>
+      </c>
+      <c r="C93" s="10">
+        <f t="shared" si="0"/>
+        <v>5384.1499999999978</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E93" s="3" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.95">
-      <c r="A94" s="6"/>
+      <c r="A94" s="6">
+        <v>45464</v>
+      </c>
+      <c r="B94" s="2">
+        <v>-10.3</v>
+      </c>
+      <c r="C94" s="10">
+        <f t="shared" si="0"/>
+        <v>5373.8499999999976</v>
+      </c>
+      <c r="D94" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="B95" s="2"/>
+      <c r="C95" s="10"/>
+      <c r="E95" s="4"/>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="B96" s="2"/>
+      <c r="C96" s="10"/>
+      <c r="E96" s="4"/>
+    </row>
+    <row r="97" spans="2:5" x14ac:dyDescent="0.95">
+      <c r="B97" s="2"/>
+      <c r="C97" s="10"/>
+      <c r="E97" s="4"/>
+    </row>
+    <row r="98" spans="2:5" x14ac:dyDescent="0.95">
+      <c r="C98" s="10"/>
+      <c r="E98" s="4"/>
+    </row>
+    <row r="99" spans="2:5" x14ac:dyDescent="0.95">
+      <c r="E99" s="4"/>
+    </row>
+    <row r="100" spans="2:5" x14ac:dyDescent="0.95">
+      <c r="E100" s="4"/>
+    </row>
+    <row r="101" spans="2:5" x14ac:dyDescent="0.95">
+      <c r="E101" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2398,7 +2555,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B81:B90">
+  <conditionalFormatting sqref="B81:B97">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>

--- a/banfei/balance.xlsx
+++ b/banfei/balance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zsx\Documents\gitee\minecraft\zhangshenxing.github.io\banfei\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1866B589-7E34-4C70-9C1C-1A81A74F068F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5F50930-3123-4BD9-8EB5-E60B380397B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="106">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -439,6 +439,14 @@
   </si>
   <si>
     <t>购买8K边框卡纸20张</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退还韦佑宸和方子辰的班费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买60页资料册2个</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -576,12 +584,7 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <font>
-        <color rgb="FFFF3300"/>
-      </font>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <font>
         <color rgb="FFFF3300"/>
@@ -883,10 +886,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E101"/>
+  <dimension ref="A1:E102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A88" sqref="A88:E94"/>
+    <sheetView tabSelected="1" topLeftCell="A84" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D95" sqref="D95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.95"/>
@@ -2013,7 +2016,7 @@
         <v>-226.11</v>
       </c>
       <c r="C66" s="10">
-        <v>948.28999999999826</v>
+        <v>948.29</v>
       </c>
       <c r="D66" s="4" t="s">
         <v>74</v>
@@ -2268,7 +2271,7 @@
         <v>-91.95</v>
       </c>
       <c r="C81" s="10">
-        <v>103.67999999999829</v>
+        <v>103.68</v>
       </c>
       <c r="D81" s="4" t="s">
         <v>89</v>
@@ -2285,7 +2288,7 @@
         <v>-138.5</v>
       </c>
       <c r="C82" s="10">
-        <v>-34.820000000001713</v>
+        <v>-34.82</v>
       </c>
       <c r="D82" s="4" t="s">
         <v>90</v>
@@ -2302,7 +2305,7 @@
         <v>-35.17</v>
       </c>
       <c r="C83" s="10">
-        <v>-69.990000000001714</v>
+        <v>-69.989999999999995</v>
       </c>
       <c r="D83" s="4" t="s">
         <v>91</v>
@@ -2319,7 +2322,7 @@
         <v>-37.76</v>
       </c>
       <c r="C84" s="10">
-        <v>-107.75000000000171</v>
+        <v>-107.75</v>
       </c>
       <c r="D84" s="4" t="s">
         <v>92</v>
@@ -2387,7 +2390,6 @@
         <v>-19.8</v>
       </c>
       <c r="C88" s="10">
-        <f>C87+B88</f>
         <v>5577.449999999998</v>
       </c>
       <c r="D88" s="4" t="s">
@@ -2405,7 +2407,6 @@
         <v>-20.8</v>
       </c>
       <c r="C89" s="10">
-        <f t="shared" ref="C89:C94" si="0">C88+B89</f>
         <v>5556.6499999999978</v>
       </c>
       <c r="D89" s="4" t="s">
@@ -2423,7 +2424,6 @@
         <v>-39.9</v>
       </c>
       <c r="C90" s="10">
-        <f t="shared" si="0"/>
         <v>5516.7499999999982</v>
       </c>
       <c r="D90" s="4" t="s">
@@ -2441,7 +2441,6 @@
         <v>-28</v>
       </c>
       <c r="C91" s="10">
-        <f t="shared" si="0"/>
         <v>5488.7499999999982</v>
       </c>
       <c r="D91" s="4" t="s">
@@ -2459,7 +2458,6 @@
         <v>-87.6</v>
       </c>
       <c r="C92" s="10">
-        <f t="shared" si="0"/>
         <v>5401.1499999999978</v>
       </c>
       <c r="D92" s="4" t="s">
@@ -2477,7 +2475,6 @@
         <v>-17</v>
       </c>
       <c r="C93" s="10">
-        <f t="shared" si="0"/>
         <v>5384.1499999999978</v>
       </c>
       <c r="D93" s="4" t="s">
@@ -2495,7 +2492,6 @@
         <v>-10.3</v>
       </c>
       <c r="C94" s="10">
-        <f t="shared" si="0"/>
         <v>5373.8499999999976</v>
       </c>
       <c r="D94" s="4" t="s">
@@ -2506,13 +2502,23 @@
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.95">
-      <c r="B95" s="2"/>
-      <c r="C95" s="10"/>
-      <c r="E95" s="4"/>
+      <c r="A95" s="6">
+        <v>45469</v>
+      </c>
+      <c r="B95" s="2">
+        <v>-22.04</v>
+      </c>
+      <c r="C95" s="10">
+        <v>5351.8099999999977</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E95" s="3" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.95">
-      <c r="B96" s="2"/>
-      <c r="C96" s="10"/>
       <c r="E96" s="4"/>
     </row>
     <row r="97" spans="2:5" x14ac:dyDescent="0.95">
@@ -2521,10 +2527,12 @@
       <c r="E97" s="4"/>
     </row>
     <row r="98" spans="2:5" x14ac:dyDescent="0.95">
+      <c r="B98" s="2"/>
       <c r="C98" s="10"/>
       <c r="E98" s="4"/>
     </row>
     <row r="99" spans="2:5" x14ac:dyDescent="0.95">
+      <c r="C99" s="10"/>
       <c r="E99" s="4"/>
     </row>
     <row r="100" spans="2:5" x14ac:dyDescent="0.95">
@@ -2533,30 +2541,33 @@
     <row r="101" spans="2:5" x14ac:dyDescent="0.95">
       <c r="E101" s="4"/>
     </row>
+    <row r="102" spans="2:5" x14ac:dyDescent="0.95">
+      <c r="B102" s="2"/>
+      <c r="C102" s="10"/>
+      <c r="D102" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E102" s="4"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B2:B57 B59:B71 B91:B1048576 B74:B80">
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="lessThan">
+  <conditionalFormatting sqref="B2:B57 B59:B71 B74:B95 B97:B1048576">
+    <cfRule type="cellIs" dxfId="3" priority="6" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B58">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B72">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B73">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B81:B97">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/banfei/balance.xlsx
+++ b/banfei/balance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zsx\Documents\gitee\minecraft\zhangshenxing.github.io\banfei\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5F50930-3123-4BD9-8EB5-E60B380397B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63EC7499-A994-4B55-9C35-0863B618120A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="106">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -886,10 +886,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E102"/>
+  <dimension ref="A1:E103"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A84" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D95" sqref="D95"/>
+      <selection activeCell="E96" sqref="E96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.95"/>
@@ -2519,7 +2519,21 @@
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.95">
-      <c r="E96" s="4"/>
+      <c r="A96" s="6">
+        <v>45470</v>
+      </c>
+      <c r="B96" s="2">
+        <v>-345.28</v>
+      </c>
+      <c r="C96" s="10">
+        <v>5006.529999999997</v>
+      </c>
+      <c r="D96" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E96" s="3" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="97" spans="2:5" x14ac:dyDescent="0.95">
       <c r="B97" s="2"/>
@@ -2532,26 +2546,30 @@
       <c r="E98" s="4"/>
     </row>
     <row r="99" spans="2:5" x14ac:dyDescent="0.95">
+      <c r="B99" s="2"/>
       <c r="C99" s="10"/>
       <c r="E99" s="4"/>
     </row>
     <row r="100" spans="2:5" x14ac:dyDescent="0.95">
+      <c r="B100" s="2"/>
+      <c r="C100" s="10"/>
       <c r="E100" s="4"/>
     </row>
     <row r="101" spans="2:5" x14ac:dyDescent="0.95">
+      <c r="B101" s="2"/>
+      <c r="C101" s="10"/>
       <c r="E101" s="4"/>
     </row>
     <row r="102" spans="2:5" x14ac:dyDescent="0.95">
       <c r="B102" s="2"/>
       <c r="C102" s="10"/>
-      <c r="D102" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="E102" s="4"/>
+    </row>
+    <row r="103" spans="2:5" x14ac:dyDescent="0.95">
+      <c r="B103" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B2:B57 B59:B71 B74:B95 B97:B1048576">
+  <conditionalFormatting sqref="B2:B57 B59:B71 B74:B1048576">
     <cfRule type="cellIs" dxfId="3" priority="6" operator="lessThan">
       <formula>0</formula>
     </cfRule>

--- a/banfei/balance.xlsx
+++ b/banfei/balance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zsx\Documents\gitee\minecraft\zhangshenxing.github.io\banfei\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63EC7499-A994-4B55-9C35-0863B618120A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3431BD1-3837-4873-A113-E41599421926}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="110">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -447,6 +447,21 @@
   </si>
   <si>
     <t>购买60页资料册2个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完颜沐希妈妈</t>
+  </si>
+  <si>
+    <t>收取耿思涂班费172.64元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收取班费38元×30人=1140元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买爱普生打印机1台(安徽众恒电脑打印机代理商黄安置)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -886,10 +901,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E103"/>
+  <dimension ref="A1:E110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A84" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E96" sqref="E96"/>
+    <sheetView tabSelected="1" topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A100" sqref="A100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.95"/>
@@ -898,7 +913,7 @@
     <col min="2" max="2" width="12.6484375" style="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.6484375" style="11" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="44.34765625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.94921875" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.1484375" style="9" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="8.796875" style="7"/>
   </cols>
   <sheetData>
@@ -2535,37 +2550,98 @@
         <v>20</v>
       </c>
     </row>
-    <row r="97" spans="2:5" x14ac:dyDescent="0.95">
-      <c r="B97" s="2"/>
-      <c r="C97" s="10"/>
-      <c r="E97" s="4"/>
-    </row>
-    <row r="98" spans="2:5" x14ac:dyDescent="0.95">
-      <c r="B98" s="2"/>
-      <c r="C98" s="10"/>
-      <c r="E98" s="4"/>
-    </row>
-    <row r="99" spans="2:5" x14ac:dyDescent="0.95">
-      <c r="B99" s="2"/>
-      <c r="C99" s="10"/>
-      <c r="E99" s="4"/>
-    </row>
-    <row r="100" spans="2:5" x14ac:dyDescent="0.95">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A97" s="6">
+        <v>45538</v>
+      </c>
+      <c r="B97" s="2">
+        <v>172.64</v>
+      </c>
+      <c r="C97" s="10">
+        <v>5179.1699999999973</v>
+      </c>
+      <c r="D97" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E97" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A98" s="6">
+        <v>45538</v>
+      </c>
+      <c r="B98" s="2">
+        <v>1140</v>
+      </c>
+      <c r="C98" s="10">
+        <v>6319.1699999999973</v>
+      </c>
+      <c r="D98" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E98" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="33" x14ac:dyDescent="0.95">
+      <c r="A99" s="6">
+        <v>45539</v>
+      </c>
+      <c r="B99" s="2">
+        <v>-1140</v>
+      </c>
+      <c r="C99" s="10">
+        <v>5179.1699999999973</v>
+      </c>
+      <c r="D99" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="E99" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A100" s="6"/>
       <c r="B100" s="2"/>
       <c r="C100" s="10"/>
       <c r="E100" s="4"/>
     </row>
-    <row r="101" spans="2:5" x14ac:dyDescent="0.95">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A101" s="6"/>
       <c r="B101" s="2"/>
       <c r="C101" s="10"/>
       <c r="E101" s="4"/>
     </row>
-    <row r="102" spans="2:5" x14ac:dyDescent="0.95">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A102" s="6"/>
       <c r="B102" s="2"/>
       <c r="C102" s="10"/>
     </row>
-    <row r="103" spans="2:5" x14ac:dyDescent="0.95">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A103" s="6"/>
       <c r="B103" s="2"/>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A104" s="6"/>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A105" s="6"/>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A106" s="6"/>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A107" s="6"/>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A108" s="6"/>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A109" s="6"/>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A110" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/banfei/balance.xlsx
+++ b/banfei/balance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zsx\Documents\gitee\minecraft\zhangshenxing.github.io\banfei\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3431BD1-3837-4873-A113-E41599421926}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80BF681D-3D31-43E1-849E-5DBA9421F3FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="121">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -462,6 +462,50 @@
   </si>
   <si>
     <t>购买爱普生打印机1台(安徽众恒电脑打印机代理商黄安置)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买中秋活动套圈+红色纸+兔子玩偶+广告板每班均摊费用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买收纳袋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买装饰小树杈1捆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买蜜瓜绿布1匹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买白色花朵蕾丝桌旗1块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买大颗粒积木树桩15个+4孔大树叶4个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买光盘行动拍拍灯4个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买小号密封袋30只</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买额外馅料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买漆扇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买冰皮月饼和馅料均摊费用</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -599,7 +643,17 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <color rgb="FFFF3300"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF3300"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFF3300"/>
@@ -901,10 +955,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E110"/>
+  <dimension ref="A1:E123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A100" sqref="A100"/>
+    <sheetView tabSelected="1" topLeftCell="A93" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A100" sqref="A100:D110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.95"/>
@@ -2601,67 +2655,264 @@
         <v>106</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.95">
-      <c r="A100" s="6"/>
-      <c r="B100" s="2"/>
-      <c r="C100" s="10"/>
-      <c r="E100" s="4"/>
+    <row r="100" spans="1:5" ht="33" x14ac:dyDescent="0.95">
+      <c r="A100" s="6">
+        <v>45547</v>
+      </c>
+      <c r="B100" s="2">
+        <v>-98.4</v>
+      </c>
+      <c r="C100" s="10">
+        <v>5080.7699999999977</v>
+      </c>
+      <c r="D100" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="E100" s="4" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.95">
-      <c r="A101" s="6"/>
-      <c r="B101" s="2"/>
-      <c r="C101" s="10"/>
-      <c r="E101" s="4"/>
+      <c r="A101" s="6">
+        <v>45547</v>
+      </c>
+      <c r="B101" s="2">
+        <v>-32</v>
+      </c>
+      <c r="C101" s="10">
+        <v>5048.7699999999977</v>
+      </c>
+      <c r="D101" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="E101" s="4" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.95">
-      <c r="A102" s="6"/>
-      <c r="B102" s="2"/>
-      <c r="C102" s="10"/>
+      <c r="A102" s="6">
+        <v>45547</v>
+      </c>
+      <c r="B102" s="2">
+        <v>-72.2</v>
+      </c>
+      <c r="C102" s="10">
+        <v>4976.5699999999979</v>
+      </c>
+      <c r="D102" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="E102" s="4" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.95">
-      <c r="A103" s="6"/>
-      <c r="B103" s="2"/>
+      <c r="A103" s="6">
+        <v>45547</v>
+      </c>
+      <c r="B103" s="2">
+        <v>-46</v>
+      </c>
+      <c r="C103" s="10">
+        <v>4930.5699999999979</v>
+      </c>
+      <c r="D103" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E103" s="4" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.95">
-      <c r="A104" s="6"/>
+      <c r="A104" s="6">
+        <v>45547</v>
+      </c>
+      <c r="B104" s="2">
+        <v>-7.75</v>
+      </c>
+      <c r="C104" s="10">
+        <v>4922.8199999999979</v>
+      </c>
+      <c r="D104" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E104" s="4" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.95">
-      <c r="A105" s="6"/>
+      <c r="A105" s="6">
+        <v>45547</v>
+      </c>
+      <c r="B105" s="2">
+        <v>-10.199999999999999</v>
+      </c>
+      <c r="C105" s="10">
+        <v>4912.6199999999981</v>
+      </c>
+      <c r="D105" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="E105" s="4" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.95">
-      <c r="A106" s="6"/>
+      <c r="A106" s="6">
+        <v>45547</v>
+      </c>
+      <c r="B106" s="2">
+        <v>-48</v>
+      </c>
+      <c r="C106" s="10">
+        <v>4864.6199999999981</v>
+      </c>
+      <c r="D106" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="E106" s="4" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.95">
-      <c r="A107" s="6"/>
+      <c r="A107" s="6">
+        <v>45547</v>
+      </c>
+      <c r="B107" s="2">
+        <v>-3.84</v>
+      </c>
+      <c r="C107" s="10">
+        <v>4860.7799999999979</v>
+      </c>
+      <c r="D107" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="E107" s="4" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.95">
-      <c r="A108" s="6"/>
+      <c r="A108" s="6">
+        <v>45547</v>
+      </c>
+      <c r="B108" s="2">
+        <v>-30.5</v>
+      </c>
+      <c r="C108" s="10">
+        <v>4830.2799999999979</v>
+      </c>
+      <c r="D108" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E108" s="4" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.95">
-      <c r="A109" s="6"/>
+      <c r="A109" s="6">
+        <v>45547</v>
+      </c>
+      <c r="B109" s="2">
+        <v>-23.2</v>
+      </c>
+      <c r="C109" s="10">
+        <v>4807.0799999999981</v>
+      </c>
+      <c r="D109" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="E109" s="4" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.95">
-      <c r="A110" s="6"/>
+      <c r="A110" s="6">
+        <v>45547</v>
+      </c>
+      <c r="B110" s="2">
+        <v>-14.45</v>
+      </c>
+      <c r="C110" s="10">
+        <v>4792.6299999999983</v>
+      </c>
+      <c r="D110" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E110" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A111" s="6"/>
+      <c r="B111" s="2"/>
+      <c r="E111" s="4"/>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A112" s="6"/>
+      <c r="B112" s="2"/>
+    </row>
+    <row r="113" spans="2:2" x14ac:dyDescent="0.95">
+      <c r="B113" s="2"/>
+    </row>
+    <row r="114" spans="2:2" x14ac:dyDescent="0.95">
+      <c r="B114" s="2"/>
+    </row>
+    <row r="115" spans="2:2" x14ac:dyDescent="0.95">
+      <c r="B115" s="2"/>
+    </row>
+    <row r="116" spans="2:2" x14ac:dyDescent="0.95">
+      <c r="B116" s="2"/>
+    </row>
+    <row r="117" spans="2:2" x14ac:dyDescent="0.95">
+      <c r="B117" s="2"/>
+    </row>
+    <row r="118" spans="2:2" x14ac:dyDescent="0.95">
+      <c r="B118" s="2"/>
+    </row>
+    <row r="119" spans="2:2" x14ac:dyDescent="0.95">
+      <c r="B119" s="2"/>
+    </row>
+    <row r="120" spans="2:2" x14ac:dyDescent="0.95">
+      <c r="B120" s="2"/>
+    </row>
+    <row r="121" spans="2:2" x14ac:dyDescent="0.95">
+      <c r="B121" s="2"/>
+    </row>
+    <row r="122" spans="2:2" x14ac:dyDescent="0.95">
+      <c r="B122" s="2"/>
+    </row>
+    <row r="123" spans="2:2" x14ac:dyDescent="0.95">
+      <c r="B123" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B2:B57 B59:B71 B74:B1048576">
-    <cfRule type="cellIs" dxfId="3" priority="6" operator="lessThan">
+  <conditionalFormatting sqref="B2:B57 B59:B71 B74:B100 B103:B1048576">
+    <cfRule type="cellIs" dxfId="5" priority="8" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B58">
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B72">
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B73">
     <cfRule type="cellIs" dxfId="2" priority="4" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B72">
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="lessThan">
+  <conditionalFormatting sqref="B101">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B73">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="lessThan">
+  <conditionalFormatting sqref="B102">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/banfei/balance.xlsx
+++ b/banfei/balance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zsx\Documents\gitee\minecraft\zhangshenxing.github.io\banfei\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80BF681D-3D31-43E1-849E-5DBA9421F3FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75D467D3-F269-4FFF-822C-9320BD55FC9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="148">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -506,6 +506,114 @@
   </si>
   <si>
     <t>购买冰皮月饼和馅料均摊费用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买圆木儿童手绘5套</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买圆木儿童手绘3套</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买仿真绿植落雨松2棵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买仿真绿植软胶混合蕨叶2棵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买仿真黑骨芒水草3棵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买仿真绿植金钱挂绿色3课</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买MC-08仿真多肉植物组合1套</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买直径10厘米泡沫半球1个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买直径8厘米泡沫半球5个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买直径20厘米泡沫半球3个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买120克羊皮纸2张+50*70cm落水麻丝6张+45*67cm云龙纸10张+54cm手操纸15张</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买50cm*3.6m雪点纱白色3张</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买78.7*109cm象牙黄卡纸5张</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买2-6cm木片250克+20cm原色树枝20根+30cm原色树枝50根+5-8圆木片18片+5cm白树枝65+14-16cm四分之一本片40片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买灰色烤漆珠60条</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买底部M4刺母实木圆球挂钩110个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买青春绿森系绢花2套</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买深绿色丝状仿青苔2套</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买0.7米原木去皮带杈树枝1根</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买1.5米原木去皮带杈树枝1套</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买单片仿真绿叶1套</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买不剪松果花干16个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买3-5厘米松果花干13个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买5-6剪好松果花干12个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买3-6cm松果花干19个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买MC-01仿真多肉植物组合1套</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买环创材料雾绿9米1张+淡黄30张</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -604,7 +712,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="177" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -638,6 +746,9 @@
     </xf>
     <xf numFmtId="178" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -955,10 +1066,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E123"/>
+  <dimension ref="A1:F142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A93" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A100" sqref="A100:D110"/>
+    <sheetView tabSelected="1" topLeftCell="A92" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D104" sqref="D104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.95"/>
@@ -2843,46 +2954,484 @@
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.95">
-      <c r="A111" s="6"/>
-      <c r="B111" s="2"/>
-      <c r="E111" s="4"/>
+      <c r="A111" s="6">
+        <v>45548</v>
+      </c>
+      <c r="B111" s="2">
+        <v>-79.8</v>
+      </c>
+      <c r="C111" s="10">
+        <v>4712.8299999999981</v>
+      </c>
+      <c r="D111" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E111" s="3" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.95">
-      <c r="A112" s="6"/>
-      <c r="B112" s="2"/>
-    </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.95">
-      <c r="B113" s="2"/>
-    </row>
-    <row r="114" spans="2:2" x14ac:dyDescent="0.95">
-      <c r="B114" s="2"/>
-    </row>
-    <row r="115" spans="2:2" x14ac:dyDescent="0.95">
-      <c r="B115" s="2"/>
-    </row>
-    <row r="116" spans="2:2" x14ac:dyDescent="0.95">
-      <c r="B116" s="2"/>
-    </row>
-    <row r="117" spans="2:2" x14ac:dyDescent="0.95">
-      <c r="B117" s="2"/>
-    </row>
-    <row r="118" spans="2:2" x14ac:dyDescent="0.95">
-      <c r="B118" s="2"/>
-    </row>
-    <row r="119" spans="2:2" x14ac:dyDescent="0.95">
-      <c r="B119" s="2"/>
-    </row>
-    <row r="120" spans="2:2" x14ac:dyDescent="0.95">
-      <c r="B120" s="2"/>
-    </row>
-    <row r="121" spans="2:2" x14ac:dyDescent="0.95">
-      <c r="B121" s="2"/>
-    </row>
-    <row r="122" spans="2:2" x14ac:dyDescent="0.95">
-      <c r="B122" s="2"/>
-    </row>
-    <row r="123" spans="2:2" x14ac:dyDescent="0.95">
-      <c r="B123" s="2"/>
+      <c r="A112" s="6">
+        <v>45548</v>
+      </c>
+      <c r="B112" s="2">
+        <v>-75.25</v>
+      </c>
+      <c r="C112" s="10">
+        <v>4637.5799999999981</v>
+      </c>
+      <c r="D112" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="E112" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.95">
+      <c r="A113" s="6">
+        <v>45548</v>
+      </c>
+      <c r="B113" s="2">
+        <v>-37.25</v>
+      </c>
+      <c r="C113" s="10">
+        <v>4600.3299999999981</v>
+      </c>
+      <c r="D113" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E113" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.95">
+      <c r="A114" s="6">
+        <v>45548</v>
+      </c>
+      <c r="B114" s="2">
+        <v>-42.82</v>
+      </c>
+      <c r="C114" s="10">
+        <v>4557.5099999999984</v>
+      </c>
+      <c r="D114" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="E114" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.95">
+      <c r="A115" s="6">
+        <v>45548</v>
+      </c>
+      <c r="B115" s="2">
+        <v>-56.03</v>
+      </c>
+      <c r="C115" s="10">
+        <v>4501.4799999999987</v>
+      </c>
+      <c r="D115" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="E115" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.95">
+      <c r="A116" s="6">
+        <v>45548</v>
+      </c>
+      <c r="B116" s="2">
+        <v>-41.9</v>
+      </c>
+      <c r="C116" s="10">
+        <v>4459.579999999999</v>
+      </c>
+      <c r="D116" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="E116" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.95">
+      <c r="A117" s="6">
+        <v>45548</v>
+      </c>
+      <c r="B117" s="2">
+        <v>-19.47</v>
+      </c>
+      <c r="C117" s="10">
+        <v>4440.1099999999988</v>
+      </c>
+      <c r="D117" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="E117" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.95">
+      <c r="A118" s="6">
+        <v>45548</v>
+      </c>
+      <c r="B118" s="2">
+        <v>-22.48</v>
+      </c>
+      <c r="C118" s="10">
+        <v>4417.6299999999992</v>
+      </c>
+      <c r="D118" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="E118" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.95">
+      <c r="A119" s="6">
+        <v>45548</v>
+      </c>
+      <c r="B119" s="2">
+        <v>-2.27</v>
+      </c>
+      <c r="C119" s="10">
+        <v>4415.3599999999988</v>
+      </c>
+      <c r="D119" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="E119" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.95">
+      <c r="A120" s="6">
+        <v>45548</v>
+      </c>
+      <c r="B120" s="2">
+        <v>-4.38</v>
+      </c>
+      <c r="C120" s="10">
+        <v>4410.9799999999987</v>
+      </c>
+      <c r="D120" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="E120" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.95">
+      <c r="A121" s="6">
+        <v>45548</v>
+      </c>
+      <c r="B121" s="2">
+        <v>-28.34</v>
+      </c>
+      <c r="C121" s="10">
+        <v>4382.6399999999985</v>
+      </c>
+      <c r="D121" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E121" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" ht="33" x14ac:dyDescent="0.95">
+      <c r="A122" s="6">
+        <v>45548</v>
+      </c>
+      <c r="B122" s="2">
+        <v>-173.2</v>
+      </c>
+      <c r="C122" s="10">
+        <v>4209.4399999999987</v>
+      </c>
+      <c r="D122" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="E122" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.95">
+      <c r="A123" s="6">
+        <v>45548</v>
+      </c>
+      <c r="B123" s="2">
+        <v>-32.4</v>
+      </c>
+      <c r="C123" s="10">
+        <v>4177.0399999999991</v>
+      </c>
+      <c r="D123" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="E123" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F123" s="12"/>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.95">
+      <c r="A124" s="6">
+        <v>45548</v>
+      </c>
+      <c r="B124" s="2">
+        <v>-19.8</v>
+      </c>
+      <c r="C124" s="10">
+        <v>4157.2399999999989</v>
+      </c>
+      <c r="D124" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="E124" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F124" s="12"/>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.95">
+      <c r="A125" s="6">
+        <v>45548</v>
+      </c>
+      <c r="B125" s="2">
+        <v>-43.11</v>
+      </c>
+      <c r="C125" s="10">
+        <v>4114.1299999999992</v>
+      </c>
+      <c r="D125" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="E125" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.95">
+      <c r="A126" s="6">
+        <v>45548</v>
+      </c>
+      <c r="B126" s="2">
+        <v>-20.399999999999999</v>
+      </c>
+      <c r="C126" s="10">
+        <v>4093.7299999999991</v>
+      </c>
+      <c r="D126" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E126" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" ht="49.5" x14ac:dyDescent="0.95">
+      <c r="A127" s="6">
+        <v>45548</v>
+      </c>
+      <c r="B127" s="2">
+        <v>-93.5</v>
+      </c>
+      <c r="C127" s="10">
+        <v>4000.2299999999991</v>
+      </c>
+      <c r="D127" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="E127" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.95">
+      <c r="A128" s="6">
+        <v>45548</v>
+      </c>
+      <c r="B128" s="2">
+        <v>-121</v>
+      </c>
+      <c r="C128" s="10">
+        <v>3879.2299999999991</v>
+      </c>
+      <c r="D128" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="E128" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A129" s="6">
+        <v>45548</v>
+      </c>
+      <c r="B129" s="2">
+        <v>-70.53</v>
+      </c>
+      <c r="C129" s="10">
+        <v>3808.6999999999989</v>
+      </c>
+      <c r="D129" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="E129" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A130" s="6">
+        <v>45548</v>
+      </c>
+      <c r="B130" s="2">
+        <v>-82.5</v>
+      </c>
+      <c r="C130" s="10">
+        <v>3726.1999999999989</v>
+      </c>
+      <c r="D130" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="E130" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A131" s="6">
+        <v>45548</v>
+      </c>
+      <c r="B131" s="2">
+        <v>-15.85</v>
+      </c>
+      <c r="C131" s="10">
+        <v>3710.349999999999</v>
+      </c>
+      <c r="D131" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="E131" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A132" s="6">
+        <v>45548</v>
+      </c>
+      <c r="B132" s="2">
+        <v>-30.98</v>
+      </c>
+      <c r="C132" s="10">
+        <v>3679.369999999999</v>
+      </c>
+      <c r="D132" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="E132" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A133" s="6">
+        <v>45548</v>
+      </c>
+      <c r="B133" s="2">
+        <v>-23.32</v>
+      </c>
+      <c r="C133" s="10">
+        <v>3656.0499999999988</v>
+      </c>
+      <c r="D133" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="E133" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A134" s="6">
+        <v>45548</v>
+      </c>
+      <c r="B134" s="2">
+        <v>-9.74</v>
+      </c>
+      <c r="C134" s="10">
+        <v>3646.309999999999</v>
+      </c>
+      <c r="D134" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="E134" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A135" s="6">
+        <v>45548</v>
+      </c>
+      <c r="B135" s="2">
+        <v>-8.6199999999999992</v>
+      </c>
+      <c r="C135" s="10">
+        <v>3637.6899999999991</v>
+      </c>
+      <c r="D135" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="E135" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A136" s="6">
+        <v>45548</v>
+      </c>
+      <c r="B136" s="2">
+        <v>-10.44</v>
+      </c>
+      <c r="C136" s="10">
+        <v>3627.2499999999991</v>
+      </c>
+      <c r="D136" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="E136" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A137" s="6">
+        <v>45548</v>
+      </c>
+      <c r="B137" s="2">
+        <v>-11.31</v>
+      </c>
+      <c r="C137" s="10">
+        <v>3615.9399999999991</v>
+      </c>
+      <c r="D137" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="E137" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="B138" s="2"/>
+      <c r="E138" s="3"/>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="B139" s="2"/>
+      <c r="E139" s="3"/>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="B140" s="2"/>
+      <c r="E140" s="3"/>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="B141" s="2"/>
+      <c r="E141" s="3"/>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="E142" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/banfei/balance.xlsx
+++ b/banfei/balance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zsx\Documents\gitee\minecraft\zhangshenxing.github.io\banfei\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75D467D3-F269-4FFF-822C-9320BD55FC9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DC42E41-7F6F-4A71-ABFE-5E46A04C6B51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="154">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -614,6 +614,30 @@
   </si>
   <si>
     <t>购买环创材料雾绿9米1张+淡黄30张</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买《狐狸和乌鸦》戏剧材料包10套</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买厚度2厘米仿真青苔丝1件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买免打孔麻绳一字隔板3个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买晒秋活动材料每班均摊费用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买240张剪纸套装</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买四色走位游戏棋</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1066,10 +1090,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F142"/>
+  <dimension ref="A1:F155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A92" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D104" sqref="D104"/>
+    <sheetView tabSelected="1" topLeftCell="A133" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I143" sqref="I143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.95"/>
@@ -3415,23 +3439,155 @@
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.95">
-      <c r="B138" s="2"/>
-      <c r="E138" s="3"/>
+      <c r="A138" s="6">
+        <v>45561</v>
+      </c>
+      <c r="B138" s="2">
+        <v>-1250</v>
+      </c>
+      <c r="C138" s="10">
+        <v>2365.9399999999991</v>
+      </c>
+      <c r="D138" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="E138" s="3" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.95">
-      <c r="B139" s="2"/>
-      <c r="E139" s="3"/>
+      <c r="A139" s="6">
+        <v>45589</v>
+      </c>
+      <c r="B139" s="2">
+        <v>-47.34</v>
+      </c>
+      <c r="C139" s="10">
+        <v>2318.599999999999</v>
+      </c>
+      <c r="D139" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="E139" s="3" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.95">
-      <c r="B140" s="2"/>
-      <c r="E140" s="3"/>
+      <c r="A140" s="6">
+        <v>45589</v>
+      </c>
+      <c r="B140" s="2">
+        <v>-23.35</v>
+      </c>
+      <c r="C140" s="10">
+        <v>2295.2499999999991</v>
+      </c>
+      <c r="D140" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="E140" s="3" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.95">
-      <c r="B141" s="2"/>
-      <c r="E141" s="3"/>
+      <c r="A141" s="6">
+        <v>45589</v>
+      </c>
+      <c r="B141" s="2">
+        <v>-69.67</v>
+      </c>
+      <c r="C141" s="10">
+        <v>2225.579999999999</v>
+      </c>
+      <c r="D141" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="E141" s="3" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.95">
-      <c r="E142" s="3"/>
+      <c r="A142" s="6">
+        <v>45600</v>
+      </c>
+      <c r="B142" s="2">
+        <v>-25.8</v>
+      </c>
+      <c r="C142" s="10">
+        <v>2199.7799999999988</v>
+      </c>
+      <c r="D142" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="E142" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A143" s="6">
+        <v>45600</v>
+      </c>
+      <c r="B143" s="2">
+        <v>-29.9</v>
+      </c>
+      <c r="C143" s="10">
+        <v>2169.8799999999987</v>
+      </c>
+      <c r="D143" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="E143" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A144" s="6"/>
+      <c r="B144" s="2"/>
+      <c r="C144" s="10"/>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.95">
+      <c r="A145" s="6"/>
+      <c r="B145" s="2"/>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.95">
+      <c r="A146" s="6"/>
+      <c r="B146" s="2"/>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.95">
+      <c r="A147" s="6"/>
+      <c r="B147" s="2"/>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.95">
+      <c r="A148" s="6"/>
+      <c r="B148" s="2"/>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.95">
+      <c r="A149" s="6"/>
+      <c r="B149" s="2"/>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.95">
+      <c r="A150" s="6"/>
+      <c r="B150" s="2"/>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.95">
+      <c r="A151" s="6"/>
+      <c r="B151" s="2"/>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.95">
+      <c r="A152" s="6"/>
+      <c r="B152" s="2"/>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.95">
+      <c r="A153" s="6"/>
+      <c r="B153" s="2"/>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.95">
+      <c r="A154" s="6"/>
+      <c r="B154" s="2"/>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.95">
+      <c r="A155" s="6"/>
+      <c r="B155" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/banfei/balance.xlsx
+++ b/banfei/balance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zsx\Documents\gitee\minecraft\zhangshenxing.github.io\banfei\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DC42E41-7F6F-4A71-ABFE-5E46A04C6B51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91077780-4561-4265-A6F9-57BDDE507868}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="162">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -638,6 +638,38 @@
   </si>
   <si>
     <t>购买四色走位游戏棋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买毛线5团</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买长1.5米宽2米高1.7米户外防雨棚1件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买30cm玉米皮鸽子巢窝2个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买有玉米营养鸽粮10斤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买白桦灰碧落纸5张+厚250克78.7*109cm金丝雀黄卡纸1张</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买高粘透明11*270mm热熔胶棒100根</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买语梵白色电池款耳机1件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买雪糕棒原色6*2捆,彩色4捆</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -778,7 +810,12 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="7">
+    <dxf>
+      <font>
+        <color rgb="FFFF3300"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFF3300"/>
@@ -1090,10 +1127,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F155"/>
+  <dimension ref="A1:F167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I143" sqref="I143"/>
+    <sheetView tabSelected="1" topLeftCell="A141" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D154" sqref="D154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.95"/>
@@ -3541,82 +3578,252 @@
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.95">
-      <c r="A144" s="6"/>
-      <c r="B144" s="2"/>
-      <c r="C144" s="10"/>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.95">
-      <c r="A145" s="6"/>
-      <c r="B145" s="2"/>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.95">
-      <c r="A146" s="6"/>
-      <c r="B146" s="2"/>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.95">
-      <c r="A147" s="6"/>
-      <c r="B147" s="2"/>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.95">
-      <c r="A148" s="6"/>
-      <c r="B148" s="2"/>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.95">
-      <c r="A149" s="6"/>
-      <c r="B149" s="2"/>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.95">
-      <c r="A150" s="6"/>
-      <c r="B150" s="2"/>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.95">
-      <c r="A151" s="6"/>
-      <c r="B151" s="2"/>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.95">
+      <c r="A144" s="6">
+        <v>45620</v>
+      </c>
+      <c r="B144" s="2">
+        <v>-22.56</v>
+      </c>
+      <c r="C144" s="10">
+        <v>2147.3199999999988</v>
+      </c>
+      <c r="D144" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="E144" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A145" s="6">
+        <v>45620</v>
+      </c>
+      <c r="B145" s="2">
+        <v>-182.17</v>
+      </c>
+      <c r="C145" s="10">
+        <v>1965.1499999999987</v>
+      </c>
+      <c r="D145" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="E145" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A146" s="6">
+        <v>45620</v>
+      </c>
+      <c r="B146" s="2">
+        <v>-13.67</v>
+      </c>
+      <c r="C146" s="10">
+        <v>1951.4799999999987</v>
+      </c>
+      <c r="D146" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="E146" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A147" s="6">
+        <v>45620</v>
+      </c>
+      <c r="B147" s="2">
+        <v>-21.61</v>
+      </c>
+      <c r="C147" s="10">
+        <v>1929.8699999999988</v>
+      </c>
+      <c r="D147" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="E147" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" ht="33" x14ac:dyDescent="0.95">
+      <c r="A148" s="6">
+        <v>45620</v>
+      </c>
+      <c r="B148" s="2">
+        <v>-41.9</v>
+      </c>
+      <c r="C148" s="10">
+        <v>1887.9699999999987</v>
+      </c>
+      <c r="D148" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="E148" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A149" s="6">
+        <v>45620</v>
+      </c>
+      <c r="B149" s="2">
+        <v>-52.8</v>
+      </c>
+      <c r="C149" s="10">
+        <v>1835.1699999999987</v>
+      </c>
+      <c r="D149" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="E149" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A150" s="6">
+        <v>45620</v>
+      </c>
+      <c r="B150" s="2">
+        <v>-22.9</v>
+      </c>
+      <c r="C150" s="10">
+        <v>1812.2699999999986</v>
+      </c>
+      <c r="D150" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="E150" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A151" s="6">
+        <v>45620</v>
+      </c>
+      <c r="B151" s="2">
+        <v>-28.83</v>
+      </c>
+      <c r="C151" s="10">
+        <v>1783.4399999999987</v>
+      </c>
+      <c r="D151" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="E151" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.95">
       <c r="A152" s="6"/>
       <c r="B152" s="2"/>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.95">
+      <c r="C152" s="10"/>
+      <c r="E152" s="3"/>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.95">
       <c r="A153" s="6"/>
       <c r="B153" s="2"/>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.95">
+      <c r="C153" s="10"/>
+      <c r="E153" s="3"/>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.95">
       <c r="A154" s="6"/>
       <c r="B154" s="2"/>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.95">
+      <c r="C154" s="10"/>
+      <c r="E154" s="3"/>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.95">
       <c r="A155" s="6"/>
       <c r="B155" s="2"/>
+      <c r="C155" s="10"/>
+      <c r="E155" s="3"/>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A156" s="6"/>
+      <c r="B156" s="2"/>
+      <c r="C156" s="10"/>
+      <c r="E156" s="3"/>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A157" s="6"/>
+      <c r="B157" s="2"/>
+      <c r="C157" s="10"/>
+      <c r="E157" s="3"/>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A158" s="6"/>
+      <c r="B158" s="2"/>
+      <c r="C158" s="10"/>
+      <c r="E158" s="3"/>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A159" s="6"/>
+      <c r="B159" s="2"/>
+      <c r="C159" s="10"/>
+      <c r="E159" s="3"/>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A160" s="6"/>
+      <c r="B160" s="2"/>
+      <c r="C160" s="10"/>
+      <c r="E160" s="3"/>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A161" s="6"/>
+      <c r="B161" s="2"/>
+      <c r="C161" s="10"/>
+      <c r="E161" s="3"/>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="C162" s="10"/>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="C163" s="10"/>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="C164" s="10"/>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="C165" s="10"/>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="C166" s="10"/>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="C167" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B2:B57 B59:B71 B74:B100 B103:B1048576">
-    <cfRule type="cellIs" dxfId="5" priority="8" operator="lessThan">
+  <conditionalFormatting sqref="B2:B57 B59:B71 B74:B100 B103:B151 B162:B1048576">
+    <cfRule type="cellIs" dxfId="6" priority="9" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B58">
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B72">
     <cfRule type="cellIs" dxfId="4" priority="6" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B72">
+  <conditionalFormatting sqref="B73">
     <cfRule type="cellIs" dxfId="3" priority="5" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B73">
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="lessThan">
+  <conditionalFormatting sqref="B101">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B101">
+  <conditionalFormatting sqref="B102">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B102">
+  <conditionalFormatting sqref="B152:B161">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>

--- a/banfei/balance.xlsx
+++ b/banfei/balance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zsx\Documents\gitee\minecraft\zhangshenxing.github.io\banfei\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91077780-4561-4265-A6F9-57BDDE507868}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E29CB846-0572-4CB1-BA15-A684F390E3E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="167">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -670,6 +670,26 @@
   </si>
   <si>
     <t>购买雪糕棒原色6*2捆,彩色4捆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买班旗1个均摊费用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买鸽子牵引弹力绳1根</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买平头勾线笔10支</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买鹦鹉2只+食物1包+鸟笼1个(实体店)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买5色500毫升水粉颜料1套</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1129,8 +1149,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A141" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D154" sqref="D154"/>
+    <sheetView tabSelected="1" topLeftCell="A144" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D157" sqref="D157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.95"/>
@@ -3714,34 +3734,89 @@
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.95">
-      <c r="A152" s="6"/>
-      <c r="B152" s="2"/>
-      <c r="C152" s="10"/>
-      <c r="E152" s="3"/>
+      <c r="A152" s="6">
+        <v>45650</v>
+      </c>
+      <c r="B152" s="2">
+        <v>-25</v>
+      </c>
+      <c r="C152" s="10">
+        <v>1758.4399999999987</v>
+      </c>
+      <c r="D152" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="E152" s="3" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.95">
-      <c r="A153" s="6"/>
-      <c r="B153" s="2"/>
-      <c r="C153" s="10"/>
-      <c r="E153" s="3"/>
+      <c r="A153" s="6">
+        <v>45653</v>
+      </c>
+      <c r="B153" s="2">
+        <v>-155</v>
+      </c>
+      <c r="C153" s="10">
+        <v>1603.4399999999987</v>
+      </c>
+      <c r="D153" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="E153" s="4" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.95">
-      <c r="A154" s="6"/>
-      <c r="B154" s="2"/>
-      <c r="C154" s="10"/>
-      <c r="E154" s="3"/>
+      <c r="A154" s="6">
+        <v>45653</v>
+      </c>
+      <c r="B154" s="2">
+        <v>-16.47</v>
+      </c>
+      <c r="C154" s="10">
+        <v>1586.9699999999987</v>
+      </c>
+      <c r="D154" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="E154" s="3" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.95">
-      <c r="A155" s="6"/>
-      <c r="B155" s="2"/>
-      <c r="C155" s="10"/>
-      <c r="E155" s="3"/>
+      <c r="A155" s="6">
+        <v>45653</v>
+      </c>
+      <c r="B155" s="2">
+        <v>-5.8</v>
+      </c>
+      <c r="C155" s="10">
+        <v>1581.1699999999987</v>
+      </c>
+      <c r="D155" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="E155" s="3" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.95">
-      <c r="A156" s="6"/>
-      <c r="B156" s="2"/>
-      <c r="C156" s="10"/>
-      <c r="E156" s="3"/>
+      <c r="A156" s="6">
+        <v>45653</v>
+      </c>
+      <c r="B156" s="2">
+        <v>-27.4</v>
+      </c>
+      <c r="C156" s="10">
+        <v>1553.7699999999986</v>
+      </c>
+      <c r="D156" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="E156" s="3" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.95">
       <c r="A157" s="6"/>

--- a/banfei/balance.xlsx
+++ b/banfei/balance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zsx\Documents\gitee\minecraft\zhangshenxing.github.io\banfei\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E29CB846-0572-4CB1-BA15-A684F390E3E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2941A8B0-216F-4632-91D2-410192F61B31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="171">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -690,6 +690,22 @@
   </si>
   <si>
     <t>购买5色500毫升水粉颜料1套</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买亮刺50条</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买KT板1个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完颜沐希妈妈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买棉签1盒+化妆刷1包+眼线笔1根+眉笔1根</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1149,8 +1165,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A144" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D157" sqref="D157"/>
+    <sheetView tabSelected="1" topLeftCell="A154" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D159" sqref="A157:D159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.95"/>
@@ -3819,22 +3835,55 @@
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.95">
-      <c r="A157" s="6"/>
-      <c r="B157" s="2"/>
-      <c r="C157" s="10"/>
-      <c r="E157" s="3"/>
+      <c r="A157" s="6">
+        <v>45663</v>
+      </c>
+      <c r="B157" s="2">
+        <v>-100</v>
+      </c>
+      <c r="C157" s="10">
+        <v>1453.7699999999986</v>
+      </c>
+      <c r="D157" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="E157" s="3" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.95">
-      <c r="A158" s="6"/>
-      <c r="B158" s="2"/>
-      <c r="C158" s="10"/>
-      <c r="E158" s="3"/>
+      <c r="A158" s="6">
+        <v>45663</v>
+      </c>
+      <c r="B158" s="2">
+        <v>-85</v>
+      </c>
+      <c r="C158" s="10">
+        <v>1368.7699999999986</v>
+      </c>
+      <c r="D158" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="E158" s="3" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.95">
-      <c r="A159" s="6"/>
-      <c r="B159" s="2"/>
-      <c r="C159" s="10"/>
-      <c r="E159" s="3"/>
+      <c r="A159" s="6">
+        <v>45663</v>
+      </c>
+      <c r="B159" s="2">
+        <v>-55.9</v>
+      </c>
+      <c r="C159" s="10">
+        <v>1312.8699999999985</v>
+      </c>
+      <c r="D159" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="E159" s="4" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.95">
       <c r="A160" s="6"/>

--- a/banfei/balance.xlsx
+++ b/banfei/balance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zsx\Documents\gitee\minecraft\zhangshenxing.github.io\banfei\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2941A8B0-216F-4632-91D2-410192F61B31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DC17006-F15D-467D-98B0-EE5965BCD022}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="181">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -706,6 +706,46 @@
   </si>
   <si>
     <t>购买棉签1盒+化妆刷1包+眼线笔1根+眉笔1根</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买A5图书收纳袋5个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买元浩 A5素描本 30本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买200ml纯白一次性杯子500只</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买宽 0.9cm得力双面胶15卷+宽2.4cm得力双面胶 24着</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买黑色晨光白板笔 60 支</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买24色抗菌款盒装罗弗超轻粘土6套+24色高品质糖果装罗弗超轻粘士10 套</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买6*197随机混派对甜品台创意装扮100支+260MM创意儿童艺术吸管200支+2果绿4色派对甜品台创意装扮 100支</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买9g得力胶棒 20支</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买南瓜6个+黄色贝贝南瓜3个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买儿童脸部面部彩绘颜料工具1套</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -846,12 +886,7 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
-    <dxf>
-      <font>
-        <color rgb="FFFF3300"/>
-      </font>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <font>
         <color rgb="FFFF3300"/>
@@ -1163,10 +1198,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F167"/>
+  <dimension ref="A1:F173"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A154" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D159" sqref="A157:D159"/>
+    <sheetView tabSelected="1" topLeftCell="A155" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B163" sqref="B163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.95"/>
@@ -3836,119 +3871,266 @@
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.95">
       <c r="A157" s="6">
-        <v>45663</v>
+        <v>45591</v>
       </c>
       <c r="B157" s="2">
-        <v>-100</v>
+        <v>-88.4</v>
       </c>
       <c r="C157" s="10">
-        <v>1453.7699999999986</v>
+        <v>1465.3699999999985</v>
       </c>
       <c r="D157" s="4" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E157" s="3" t="s">
-        <v>169</v>
+        <v>17</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.95">
       <c r="A158" s="6">
-        <v>45663</v>
+        <v>45591</v>
       </c>
       <c r="B158" s="2">
-        <v>-85</v>
+        <v>-274.3</v>
       </c>
       <c r="C158" s="10">
-        <v>1368.7699999999986</v>
+        <v>1191.0699999999986</v>
       </c>
       <c r="D158" s="4" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="E158" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.95">
       <c r="A159" s="6">
+        <v>45591</v>
+      </c>
+      <c r="B159" s="2">
+        <v>-31.7</v>
+      </c>
+      <c r="C159" s="10">
+        <v>1159.3699999999985</v>
+      </c>
+      <c r="D159" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="E159" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" ht="33" x14ac:dyDescent="0.95">
+      <c r="A160" s="6">
+        <v>45591</v>
+      </c>
+      <c r="B160" s="2">
+        <v>-42.8</v>
+      </c>
+      <c r="C160" s="10">
+        <v>1116.5699999999986</v>
+      </c>
+      <c r="D160" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="E160" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A161" s="6">
+        <v>45591</v>
+      </c>
+      <c r="B161" s="2">
+        <v>-42.72</v>
+      </c>
+      <c r="C161" s="10">
+        <v>1073.8499999999985</v>
+      </c>
+      <c r="D161" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="E161" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" ht="33" x14ac:dyDescent="0.95">
+      <c r="A162" s="6">
+        <v>45591</v>
+      </c>
+      <c r="B162" s="2">
+        <v>-307.75</v>
+      </c>
+      <c r="C162" s="10">
+        <v>766.09999999999854</v>
+      </c>
+      <c r="D162" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="E162" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" ht="49.5" x14ac:dyDescent="0.95">
+      <c r="A163" s="6">
+        <v>45591</v>
+      </c>
+      <c r="B163" s="2">
+        <v>-19.28</v>
+      </c>
+      <c r="C163" s="10">
+        <v>746.81999999999857</v>
+      </c>
+      <c r="D163" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="E163" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A164" s="6">
+        <v>45591</v>
+      </c>
+      <c r="B164" s="2">
+        <v>-30.76</v>
+      </c>
+      <c r="C164" s="10">
+        <v>716.05999999999858</v>
+      </c>
+      <c r="D164" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="E164" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A165" s="6">
+        <v>45591</v>
+      </c>
+      <c r="B165" s="2">
+        <v>-24.5</v>
+      </c>
+      <c r="C165" s="10">
+        <v>691.55999999999858</v>
+      </c>
+      <c r="D165" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="E165" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A166" s="6">
         <v>45663</v>
       </c>
-      <c r="B159" s="2">
+      <c r="B166" s="2">
+        <v>-100</v>
+      </c>
+      <c r="C166" s="10">
+        <v>591.55999999999858</v>
+      </c>
+      <c r="D166" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="E166" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A167" s="6">
+        <v>45663</v>
+      </c>
+      <c r="B167" s="2">
+        <v>-85</v>
+      </c>
+      <c r="C167" s="10">
+        <v>506.55999999999858</v>
+      </c>
+      <c r="D167" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="E167" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A168" s="6">
+        <v>45663</v>
+      </c>
+      <c r="B168" s="2">
         <v>-55.9</v>
       </c>
-      <c r="C159" s="10">
-        <v>1312.8699999999985</v>
-      </c>
-      <c r="D159" s="4" t="s">
+      <c r="C168" s="10">
+        <v>450.6599999999986</v>
+      </c>
+      <c r="D168" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="E159" s="4" t="s">
+      <c r="E168" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.95">
-      <c r="A160" s="6"/>
-      <c r="B160" s="2"/>
-      <c r="C160" s="10"/>
-      <c r="E160" s="3"/>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.95">
-      <c r="A161" s="6"/>
-      <c r="B161" s="2"/>
-      <c r="C161" s="10"/>
-      <c r="E161" s="3"/>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.95">
-      <c r="C162" s="10"/>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.95">
-      <c r="C163" s="10"/>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.95">
-      <c r="C164" s="10"/>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.95">
-      <c r="C165" s="10"/>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.95">
-      <c r="C166" s="10"/>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.95">
-      <c r="C167" s="10"/>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A169" s="6">
+        <v>45664</v>
+      </c>
+      <c r="B169" s="2">
+        <v>-63</v>
+      </c>
+      <c r="C169" s="10">
+        <v>387.6599999999986</v>
+      </c>
+      <c r="D169" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="E169" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="B170" s="2"/>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="B171" s="2"/>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="B172" s="2"/>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="B173" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B2:B57 B59:B71 B74:B100 B103:B151 B162:B1048576">
-    <cfRule type="cellIs" dxfId="6" priority="9" operator="lessThan">
+  <conditionalFormatting sqref="B2:B57 B59:B71 B74:B100 B103:B1048576">
+    <cfRule type="cellIs" dxfId="5" priority="9" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B58">
-    <cfRule type="cellIs" dxfId="5" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="7" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B72">
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="6" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B73">
-    <cfRule type="cellIs" dxfId="3" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="5" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B101">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B102">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B152:B161">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/banfei/balance.xlsx
+++ b/banfei/balance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zsx\Documents\gitee\minecraft\zhangshenxing.github.io\banfei\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DC17006-F15D-467D-98B0-EE5965BCD022}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0201C27-CF83-48FB-80AF-E46C2A4CE49C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="181">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1198,10 +1198,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F173"/>
+  <dimension ref="A1:F184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A155" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B163" sqref="B163"/>
+    <sheetView tabSelected="1" topLeftCell="A164" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F177" sqref="F177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.95"/>
@@ -4091,16 +4091,89 @@
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.95">
-      <c r="B170" s="2"/>
+      <c r="A170" s="6">
+        <v>45712</v>
+      </c>
+      <c r="B170" s="2">
+        <v>6000</v>
+      </c>
+      <c r="C170" s="10">
+        <v>6387.66</v>
+      </c>
+      <c r="D170" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E170" s="3" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A171" s="6"/>
       <c r="B171" s="2"/>
+      <c r="C171" s="10"/>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A172" s="6"/>
       <c r="B172" s="2"/>
+      <c r="C172" s="10"/>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A173" s="6"/>
       <c r="B173" s="2"/>
+      <c r="C173" s="10"/>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A174" s="6"/>
+      <c r="B174" s="2"/>
+      <c r="C174" s="10"/>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A175" s="6"/>
+      <c r="B175" s="2"/>
+      <c r="C175" s="10"/>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A176" s="6"/>
+      <c r="B176" s="2"/>
+      <c r="C176" s="10"/>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.95">
+      <c r="A177" s="6"/>
+      <c r="B177" s="2"/>
+      <c r="C177" s="10"/>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.95">
+      <c r="A178" s="6"/>
+      <c r="B178" s="2"/>
+      <c r="C178" s="10"/>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.95">
+      <c r="A179" s="6"/>
+      <c r="B179" s="2"/>
+      <c r="C179" s="10"/>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.95">
+      <c r="A180" s="6"/>
+      <c r="B180" s="2"/>
+      <c r="C180" s="10"/>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.95">
+      <c r="A181" s="6"/>
+      <c r="B181" s="2"/>
+      <c r="C181" s="10"/>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.95">
+      <c r="A182" s="6"/>
+      <c r="B182" s="2"/>
+      <c r="C182" s="10"/>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.95">
+      <c r="A183" s="6"/>
+      <c r="B183" s="2"/>
+      <c r="C183" s="10"/>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.95">
+      <c r="A184" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/banfei/balance.xlsx
+++ b/banfei/balance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zsx\Documents\gitee\minecraft\zhangshenxing.github.io\banfei\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0201C27-CF83-48FB-80AF-E46C2A4CE49C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3B4DE59-616F-41D9-81D8-4B52603C12BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="186">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -746,6 +746,26 @@
   </si>
   <si>
     <t>购买儿童脸部面部彩绘颜料工具1套</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买12色水彩笔7套</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买A5打印纸4包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买哪吒贴纸50张</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买白底diy面具40个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买9mm宽得力双面胶32卷</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1201,7 +1221,7 @@
   <dimension ref="A1:F184"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A164" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F177" sqref="F177"/>
+      <selection activeCell="D176" sqref="D176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.95"/>
@@ -4108,29 +4128,89 @@
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.95">
-      <c r="A171" s="6"/>
-      <c r="B171" s="2"/>
-      <c r="C171" s="10"/>
+      <c r="A171" s="6">
+        <v>45725</v>
+      </c>
+      <c r="B171" s="2">
+        <v>-139.30000000000001</v>
+      </c>
+      <c r="C171" s="10">
+        <v>6248.36</v>
+      </c>
+      <c r="D171" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="E171" s="9" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.95">
-      <c r="A172" s="6"/>
-      <c r="B172" s="2"/>
-      <c r="C172" s="10"/>
+      <c r="A172" s="6">
+        <v>45737</v>
+      </c>
+      <c r="B172" s="2">
+        <v>-52.6</v>
+      </c>
+      <c r="C172" s="10">
+        <v>6195.7599999999993</v>
+      </c>
+      <c r="D172" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="E172" s="9" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.95">
-      <c r="A173" s="6"/>
-      <c r="B173" s="2"/>
-      <c r="C173" s="10"/>
+      <c r="A173" s="6">
+        <v>45740</v>
+      </c>
+      <c r="B173" s="2">
+        <v>-15.9</v>
+      </c>
+      <c r="C173" s="10">
+        <v>6179.86</v>
+      </c>
+      <c r="D173" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="E173" s="4" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.95">
-      <c r="A174" s="6"/>
-      <c r="B174" s="2"/>
-      <c r="C174" s="10"/>
+      <c r="A174" s="6">
+        <v>45740</v>
+      </c>
+      <c r="B174" s="2">
+        <v>-26.5</v>
+      </c>
+      <c r="C174" s="10">
+        <v>6153.36</v>
+      </c>
+      <c r="D174" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="E174" s="4" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.95">
-      <c r="A175" s="6"/>
-      <c r="B175" s="2"/>
-      <c r="C175" s="10"/>
+      <c r="A175" s="6">
+        <v>45740</v>
+      </c>
+      <c r="B175" s="2">
+        <v>-19.8</v>
+      </c>
+      <c r="C175" s="10">
+        <v>6133.5599999999995</v>
+      </c>
+      <c r="D175" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="E175" s="4" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.95">
       <c r="A176" s="6"/>

--- a/banfei/balance.xlsx
+++ b/banfei/balance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zsx\Documents\gitee\minecraft\zhangshenxing.github.io\banfei\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3B4DE59-616F-41D9-81D8-4B52603C12BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95CB533D-43BF-4FC9-B489-7CF314267683}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="188">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -766,6 +766,14 @@
   </si>
   <si>
     <t>购买9mm宽得力双面胶32卷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买公鸡下蛋抖球盒子5套(加厚硬盒+25球)+口哨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买彩虹伞幼儿园户外玩具拓展4.0米直径4色【送海洋球+平衡x2球+收纳袋】</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1221,7 +1229,7 @@
   <dimension ref="A1:F184"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A164" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D176" sqref="D176"/>
+      <selection activeCell="D177" sqref="B176:D177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.95"/>
@@ -4212,47 +4220,71 @@
         <v>32</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.95">
-      <c r="A176" s="6"/>
-      <c r="B176" s="2"/>
-      <c r="C176" s="10"/>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.95">
-      <c r="A177" s="6"/>
-      <c r="B177" s="2"/>
-      <c r="C177" s="10"/>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.95">
+    <row r="176" spans="1:5" ht="33" x14ac:dyDescent="0.95">
+      <c r="A176" s="6">
+        <v>45745</v>
+      </c>
+      <c r="B176" s="2">
+        <v>-88</v>
+      </c>
+      <c r="C176" s="10">
+        <v>6045.5599999999995</v>
+      </c>
+      <c r="D176" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="E176" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" ht="33" x14ac:dyDescent="0.95">
+      <c r="A177" s="6">
+        <v>45745</v>
+      </c>
+      <c r="B177" s="2">
+        <v>-116.6</v>
+      </c>
+      <c r="C177" s="10">
+        <v>5928.9599999999991</v>
+      </c>
+      <c r="D177" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="E177" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.95">
       <c r="A178" s="6"/>
       <c r="B178" s="2"/>
       <c r="C178" s="10"/>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.95">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.95">
       <c r="A179" s="6"/>
       <c r="B179" s="2"/>
       <c r="C179" s="10"/>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.95">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.95">
       <c r="A180" s="6"/>
       <c r="B180" s="2"/>
       <c r="C180" s="10"/>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.95">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.95">
       <c r="A181" s="6"/>
       <c r="B181" s="2"/>
       <c r="C181" s="10"/>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.95">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.95">
       <c r="A182" s="6"/>
       <c r="B182" s="2"/>
       <c r="C182" s="10"/>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.95">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.95">
       <c r="A183" s="6"/>
       <c r="B183" s="2"/>
       <c r="C183" s="10"/>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.95">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.95">
       <c r="A184" s="6"/>
     </row>
   </sheetData>

--- a/banfei/balance.xlsx
+++ b/banfei/balance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zsx\Documents\gitee\minecraft\zhangshenxing.github.io\banfei\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95CB533D-43BF-4FC9-B489-7CF314267683}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B67BDD3F-025B-4DDE-9A39-A291643A0B8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="199">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -774,6 +774,50 @@
   </si>
   <si>
     <t>购买彩虹伞幼儿园户外玩具拓展4.0米直径4色【送海洋球+平衡x2球+收纳袋】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买蓝色晾晒架1个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买白色大号网格展示架2个+白色小号网格展示架2个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买3种色系扭扭棒600根</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买仿真植物树叶模板和颜料1套+仿真植物鸟和蒲公英模板1套</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买美工区材料木勺50支+木叉50支+黑白圆形椭圆混200只</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买淡青绿纱幔5件+芽绿纱幔2件+鹦鹉绿纱幔6件+石绿纱幔6件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买小收纳盒16个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买200ml一次性杯子50个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买幼儿园架子塑料管1套</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买单层2联种植箱2个+单层1联种植箱2个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买100斤精选营养土1袋</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1226,10 +1270,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F184"/>
+  <dimension ref="A1:F196"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A164" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D177" sqref="B176:D177"/>
+    <sheetView tabSelected="1" topLeftCell="A176" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A178" sqref="A178:D188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.95"/>
@@ -4255,37 +4299,225 @@
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.95">
-      <c r="A178" s="6"/>
-      <c r="B178" s="2"/>
-      <c r="C178" s="10"/>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.95">
-      <c r="A179" s="6"/>
-      <c r="B179" s="2"/>
-      <c r="C179" s="10"/>
+      <c r="A178" s="6">
+        <v>45748</v>
+      </c>
+      <c r="B178" s="2">
+        <v>-36.9</v>
+      </c>
+      <c r="C178" s="10">
+        <v>5892.0599999999995</v>
+      </c>
+      <c r="D178" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="E178" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" ht="33" x14ac:dyDescent="0.95">
+      <c r="A179" s="6">
+        <v>45748</v>
+      </c>
+      <c r="B179" s="2">
+        <v>-33</v>
+      </c>
+      <c r="C179" s="10">
+        <v>5859.0599999999995</v>
+      </c>
+      <c r="D179" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="E179" s="3" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.95">
-      <c r="A180" s="6"/>
-      <c r="B180" s="2"/>
-      <c r="C180" s="10"/>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.95">
-      <c r="A181" s="6"/>
-      <c r="B181" s="2"/>
-      <c r="C181" s="10"/>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.95">
-      <c r="A182" s="6"/>
-      <c r="B182" s="2"/>
-      <c r="C182" s="10"/>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.95">
-      <c r="A183" s="6"/>
-      <c r="B183" s="2"/>
-      <c r="C183" s="10"/>
+      <c r="A180" s="6">
+        <v>45748</v>
+      </c>
+      <c r="B180" s="2">
+        <v>-33</v>
+      </c>
+      <c r="C180" s="10">
+        <v>5826.0599999999995</v>
+      </c>
+      <c r="D180" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="E180" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" ht="33" x14ac:dyDescent="0.95">
+      <c r="A181" s="6">
+        <v>45748</v>
+      </c>
+      <c r="B181" s="2">
+        <v>-32.700000000000003</v>
+      </c>
+      <c r="C181" s="10">
+        <v>5793.36</v>
+      </c>
+      <c r="D181" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="E181" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" ht="33" x14ac:dyDescent="0.95">
+      <c r="A182" s="6">
+        <v>45748</v>
+      </c>
+      <c r="B182" s="2">
+        <v>-47.8</v>
+      </c>
+      <c r="C182" s="10">
+        <v>5745.5599999999995</v>
+      </c>
+      <c r="D182" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="E182" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" ht="33" x14ac:dyDescent="0.95">
+      <c r="A183" s="6">
+        <v>45745</v>
+      </c>
+      <c r="B183" s="2">
+        <v>-72.510000000000005</v>
+      </c>
+      <c r="C183" s="10">
+        <v>5673.0499999999993</v>
+      </c>
+      <c r="D183" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="E183" s="3" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.95">
-      <c r="A184" s="6"/>
+      <c r="A184" s="6">
+        <v>45745</v>
+      </c>
+      <c r="B184" s="2">
+        <v>-25.6</v>
+      </c>
+      <c r="C184" s="10">
+        <v>5647.4499999999989</v>
+      </c>
+      <c r="D184" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="E184" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A185" s="6">
+        <v>45745</v>
+      </c>
+      <c r="B185" s="2">
+        <v>-17.8</v>
+      </c>
+      <c r="C185" s="10">
+        <v>5629.6499999999987</v>
+      </c>
+      <c r="D185" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="E185" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A186" s="6">
+        <v>45757</v>
+      </c>
+      <c r="B186" s="2">
+        <v>-80</v>
+      </c>
+      <c r="C186" s="10">
+        <v>5549.6499999999987</v>
+      </c>
+      <c r="D186" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="E186" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A187" s="6">
+        <v>45761</v>
+      </c>
+      <c r="B187" s="2">
+        <v>-106.59</v>
+      </c>
+      <c r="C187" s="10">
+        <v>5443.0599999999986</v>
+      </c>
+      <c r="D187" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="E187" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A188" s="6">
+        <v>45761</v>
+      </c>
+      <c r="B188" s="2">
+        <v>-53.5</v>
+      </c>
+      <c r="C188" s="10">
+        <v>5389.5599999999986</v>
+      </c>
+      <c r="D188" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="E188" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="B189" s="2"/>
+      <c r="C189" s="10"/>
+      <c r="E189" s="3"/>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="B190" s="2"/>
+      <c r="C190" s="10"/>
+      <c r="E190" s="3"/>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="B191" s="2"/>
+      <c r="C191" s="10"/>
+      <c r="E191" s="3"/>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="B192" s="2"/>
+      <c r="C192" s="10"/>
+    </row>
+    <row r="193" spans="2:3" x14ac:dyDescent="0.95">
+      <c r="B193" s="2"/>
+      <c r="C193" s="10"/>
+    </row>
+    <row r="194" spans="2:3" x14ac:dyDescent="0.95">
+      <c r="B194" s="2"/>
+      <c r="C194" s="10"/>
+    </row>
+    <row r="195" spans="2:3" x14ac:dyDescent="0.95">
+      <c r="B195" s="2"/>
+      <c r="C195" s="10"/>
+    </row>
+    <row r="196" spans="2:3" x14ac:dyDescent="0.95">
+      <c r="C196" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/banfei/balance.xlsx
+++ b/banfei/balance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zsx\Documents\gitee\minecraft\zhangshenxing.github.io\banfei\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B67BDD3F-025B-4DDE-9A39-A291643A0B8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BD1BB6A-67AE-4846-B061-0C99A2F651C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="219">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -818,6 +818,82 @@
   </si>
   <si>
     <t>购买100斤精选营养土1袋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵跃焜妈妈</t>
+  </si>
+  <si>
+    <t>购买黑色发箍30个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买吸管积木100根+吸管连接头10个+pvc透明绘画膜1卷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买40cm*10米长卷绘画纸1卷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买灰白纸1张+双面牛纸1张+柠檬黄纸1张+牛皮纸1卷+肤色纸1张+墨绿纸5张+白桦灰纸5张+咖啡纸1张+深咖纸1张+鲜绿纸5张+珠光星翠纸5张</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买20*14*4纸盒10个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买柠檬黄手揉纸10张+苹果绿手揉纸20张</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买军绿雪点纱1卷+果绿雪点纱1卷+牛皮纸袋25个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买杯托50只</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>班级打印书香班级游戏书的费用</t>
+  </si>
+  <si>
+    <t>中一班谷雨活动耗材费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方老师</t>
+  </si>
+  <si>
+    <t>中一班谷雨活动环创材料费</t>
+  </si>
+  <si>
+    <t>张子漪老师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买双响筒5副+彩虹摇铃2个+榉木沙筒3个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买水粉笔100支</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买16色丙烯颜料1套</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买黄篾3m+绿色豆豆线1卷+森林绿豆豆线1卷+春日新芽豆豆线1卷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买绿色铝塑管5米</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买1公分厚90*60cm挤塑板3个</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1270,10 +1346,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F196"/>
+  <dimension ref="A1:F208"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A176" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A178" sqref="A178:D188"/>
+    <sheetView tabSelected="1" topLeftCell="A193" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A189" sqref="A189:D205"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.95"/>
@@ -4486,38 +4562,302 @@
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.95">
-      <c r="B189" s="2"/>
-      <c r="C189" s="10"/>
-      <c r="E189" s="3"/>
+      <c r="A189" s="6">
+        <v>45761</v>
+      </c>
+      <c r="B189" s="2">
+        <v>-63</v>
+      </c>
+      <c r="C189" s="10">
+        <v>5326.5599999999986</v>
+      </c>
+      <c r="D189" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="E189" s="3" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.95">
-      <c r="B190" s="2"/>
-      <c r="C190" s="10"/>
-      <c r="E190" s="3"/>
+      <c r="A190" s="6">
+        <v>45761</v>
+      </c>
+      <c r="B190" s="2">
+        <v>-15.43</v>
+      </c>
+      <c r="C190" s="10">
+        <v>5311.1299999999983</v>
+      </c>
+      <c r="D190" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="E190" s="3" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.95">
-      <c r="B191" s="2"/>
-      <c r="C191" s="10"/>
-      <c r="E191" s="3"/>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.95">
-      <c r="B192" s="2"/>
-      <c r="C192" s="10"/>
-    </row>
-    <row r="193" spans="2:3" x14ac:dyDescent="0.95">
-      <c r="B193" s="2"/>
-      <c r="C193" s="10"/>
-    </row>
-    <row r="194" spans="2:3" x14ac:dyDescent="0.95">
-      <c r="B194" s="2"/>
-      <c r="C194" s="10"/>
-    </row>
-    <row r="195" spans="2:3" x14ac:dyDescent="0.95">
-      <c r="B195" s="2"/>
-      <c r="C195" s="10"/>
-    </row>
-    <row r="196" spans="2:3" x14ac:dyDescent="0.95">
-      <c r="C196" s="10"/>
+      <c r="A191" s="6">
+        <v>45761</v>
+      </c>
+      <c r="B191" s="2">
+        <v>-37</v>
+      </c>
+      <c r="C191" s="10">
+        <v>5274.1299999999983</v>
+      </c>
+      <c r="D191" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="E191" s="3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" ht="33" x14ac:dyDescent="0.95">
+      <c r="A192" s="6">
+        <v>45761</v>
+      </c>
+      <c r="B192" s="2">
+        <v>-81.180000000000007</v>
+      </c>
+      <c r="C192" s="10">
+        <v>5192.949999999998</v>
+      </c>
+      <c r="D192" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="E192" s="3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A193" s="6">
+        <v>45761</v>
+      </c>
+      <c r="B193" s="2">
+        <v>-12</v>
+      </c>
+      <c r="C193" s="10">
+        <v>5180.949999999998</v>
+      </c>
+      <c r="D193" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="E193" s="3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A194" s="6">
+        <v>45761</v>
+      </c>
+      <c r="B194" s="2">
+        <v>-17.3</v>
+      </c>
+      <c r="C194" s="10">
+        <v>5163.6499999999978</v>
+      </c>
+      <c r="D194" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="E194" s="3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A195" s="6">
+        <v>45761</v>
+      </c>
+      <c r="B195" s="2">
+        <v>-27.7</v>
+      </c>
+      <c r="C195" s="10">
+        <v>5135.949999999998</v>
+      </c>
+      <c r="D195" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="E195" s="3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" ht="33" x14ac:dyDescent="0.95">
+      <c r="A196" s="6">
+        <v>45761</v>
+      </c>
+      <c r="B196" s="2">
+        <v>-23.2</v>
+      </c>
+      <c r="C196" s="10">
+        <v>5112.7499999999982</v>
+      </c>
+      <c r="D196" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="E196" s="3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A197" s="6">
+        <v>45761</v>
+      </c>
+      <c r="B197" s="2">
+        <v>-22.78</v>
+      </c>
+      <c r="C197" s="10">
+        <v>5089.9699999999984</v>
+      </c>
+      <c r="D197" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="E197" s="3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" ht="66" x14ac:dyDescent="0.95">
+      <c r="A198" s="6">
+        <v>45761</v>
+      </c>
+      <c r="B198" s="2">
+        <v>-136.12</v>
+      </c>
+      <c r="C198" s="10">
+        <v>4953.8499999999985</v>
+      </c>
+      <c r="D198" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="E198" s="3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A199" s="6">
+        <v>45761</v>
+      </c>
+      <c r="B199" s="2">
+        <v>-18.05</v>
+      </c>
+      <c r="C199" s="10">
+        <v>4935.7999999999984</v>
+      </c>
+      <c r="D199" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="E199" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A200" s="6">
+        <v>45761</v>
+      </c>
+      <c r="B200" s="2">
+        <v>-23.4</v>
+      </c>
+      <c r="C200" s="10">
+        <v>4912.3999999999987</v>
+      </c>
+      <c r="D200" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="E200" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" ht="33" x14ac:dyDescent="0.95">
+      <c r="A201" s="6">
+        <v>45761</v>
+      </c>
+      <c r="B201" s="2">
+        <v>-33.4</v>
+      </c>
+      <c r="C201" s="10">
+        <v>4878.9999999999991</v>
+      </c>
+      <c r="D201" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="E201" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A202" s="6">
+        <v>45761</v>
+      </c>
+      <c r="B202" s="2">
+        <v>-14.2</v>
+      </c>
+      <c r="C202" s="10">
+        <v>4864.7999999999993</v>
+      </c>
+      <c r="D202" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="E202" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A203" s="6">
+        <v>45763</v>
+      </c>
+      <c r="B203" s="2">
+        <v>-41.5</v>
+      </c>
+      <c r="C203" s="10">
+        <v>4823.2999999999993</v>
+      </c>
+      <c r="D203" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="E203" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A204" s="6">
+        <v>45764</v>
+      </c>
+      <c r="B204" s="2">
+        <v>-82.3</v>
+      </c>
+      <c r="C204" s="10">
+        <v>4740.9999999999991</v>
+      </c>
+      <c r="D204" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="E204" s="9" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A205" s="6">
+        <v>45765</v>
+      </c>
+      <c r="B205" s="2">
+        <v>-11.3</v>
+      </c>
+      <c r="C205" s="10">
+        <v>4729.6999999999989</v>
+      </c>
+      <c r="D205" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="E205" s="9" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="B206" s="2"/>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="B207" s="2"/>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="B208" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/banfei/balance.xlsx
+++ b/banfei/balance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zsx\Documents\gitee\minecraft\zhangshenxing.github.io\banfei\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BD1BB6A-67AE-4846-B061-0C99A2F651C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBB4C73C-7489-4DA0-AB3B-8449AD4F8806}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="229">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -894,6 +894,46 @@
   </si>
   <si>
     <t>购买1公分厚90*60cm挤塑板3个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买50cm舞台表演大毛笔1支</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买30*75cm空白竹简1卷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买35cm体能棒红黄蓝绿色4根+四色随机2根</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买高50cm可拉长160cm伸缩木栅栏2个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买红色长方形儿童仿真纸砖积木80个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买50克大罐装12色超轻粘土5套</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买12色50g超轻粘土2套</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买2米加长彩带红色20条+紫色10条+银色20条+绿色20条+黄色30条</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买中一班1.84*08草+1.2*0.6栅栏背景板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买13.5*13.5*8.5c 0.25kg万象半砖6个</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1346,10 +1386,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F208"/>
+  <dimension ref="A1:F224"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A193" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A189" sqref="A189:D205"/>
+    <sheetView tabSelected="1" topLeftCell="A201" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D210" sqref="D210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.95"/>
@@ -4846,18 +4886,222 @@
       <c r="D205" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="E205" s="9" t="s">
+      <c r="E205" s="4" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.95">
-      <c r="B206" s="2"/>
+      <c r="A206" s="6">
+        <v>45792</v>
+      </c>
+      <c r="B206" s="2">
+        <v>-6.12</v>
+      </c>
+      <c r="C206" s="10">
+        <v>4723.579999999999</v>
+      </c>
+      <c r="D206" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E206" s="4" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.95">
-      <c r="B207" s="2"/>
+      <c r="A207" s="6">
+        <v>45792</v>
+      </c>
+      <c r="B207" s="2">
+        <v>-44</v>
+      </c>
+      <c r="C207" s="10">
+        <v>4679.579999999999</v>
+      </c>
+      <c r="D207" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="E207" s="4" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.95">
-      <c r="B208" s="2"/>
+      <c r="A208" s="6">
+        <v>45792</v>
+      </c>
+      <c r="B208" s="2">
+        <v>-29.58</v>
+      </c>
+      <c r="C208" s="10">
+        <v>4649.9999999999991</v>
+      </c>
+      <c r="D208" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="E208" s="4" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A209" s="6">
+        <v>45792</v>
+      </c>
+      <c r="B209" s="2">
+        <v>-51.16</v>
+      </c>
+      <c r="C209" s="10">
+        <v>4598.8399999999992</v>
+      </c>
+      <c r="D209" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="E209" s="4" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A210" s="6">
+        <v>45792</v>
+      </c>
+      <c r="B210" s="2">
+        <v>-34.14</v>
+      </c>
+      <c r="C210" s="10">
+        <v>4564.6999999999989</v>
+      </c>
+      <c r="D210" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="E210" s="4" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A211" s="6">
+        <v>45793</v>
+      </c>
+      <c r="B211" s="2">
+        <v>-150</v>
+      </c>
+      <c r="C211" s="10">
+        <v>4414.6999999999989</v>
+      </c>
+      <c r="D211" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="E211" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A212" s="6">
+        <v>45793</v>
+      </c>
+      <c r="B212" s="2">
+        <v>-94.05</v>
+      </c>
+      <c r="C212" s="10">
+        <v>4320.6499999999987</v>
+      </c>
+      <c r="D212" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="E212" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A213" s="6">
+        <v>45793</v>
+      </c>
+      <c r="B213" s="2">
+        <v>-20</v>
+      </c>
+      <c r="C213" s="10">
+        <v>4300.6499999999987</v>
+      </c>
+      <c r="D213" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="E213" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" ht="33" x14ac:dyDescent="0.95">
+      <c r="A214" s="6">
+        <v>45793</v>
+      </c>
+      <c r="B214" s="2">
+        <v>-72.36</v>
+      </c>
+      <c r="C214" s="10">
+        <v>4228.2899999999991</v>
+      </c>
+      <c r="D214" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="E214" s="4" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A215" s="6">
+        <v>45797</v>
+      </c>
+      <c r="B215" s="2">
+        <v>-178.64</v>
+      </c>
+      <c r="C215" s="10">
+        <v>4049.6499999999992</v>
+      </c>
+      <c r="D215" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="E215" s="4" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A216" s="6"/>
+      <c r="B216" s="2"/>
+      <c r="C216" s="10"/>
+      <c r="E216" s="4"/>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A217" s="6"/>
+      <c r="B217" s="2"/>
+      <c r="C217" s="10"/>
+      <c r="E217" s="4"/>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A218" s="6"/>
+      <c r="B218" s="2"/>
+      <c r="C218" s="10"/>
+      <c r="E218" s="4"/>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A219" s="6"/>
+      <c r="B219" s="2"/>
+      <c r="C219" s="10"/>
+      <c r="E219" s="4"/>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A220" s="6"/>
+      <c r="B220" s="2"/>
+      <c r="C220" s="10"/>
+      <c r="E220" s="4"/>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="C221" s="10"/>
+      <c r="E221" s="4"/>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="E222" s="4"/>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="E223" s="4"/>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="E224" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/banfei/balance.xlsx
+++ b/banfei/balance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zsx\Documents\gitee\minecraft\zhangshenxing.github.io\banfei\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBB4C73C-7489-4DA0-AB3B-8449AD4F8806}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B31B9722-ED3C-4BE2-8BEF-C81587E57E6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="230">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -935,6 +935,9 @@
   <si>
     <t>购买13.5*13.5*8.5c 0.25kg万象半砖6个</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中班父亲节活动经费均摊</t>
   </si>
 </sst>
 </file>
@@ -1389,7 +1392,7 @@
   <dimension ref="A1:F224"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A201" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D210" sqref="D210"/>
+      <selection activeCell="D216" sqref="A216:D216"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.95"/>
@@ -5061,10 +5064,21 @@
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.95">
-      <c r="A216" s="6"/>
-      <c r="B216" s="2"/>
-      <c r="C216" s="10"/>
-      <c r="E216" s="4"/>
+      <c r="A216" s="6">
+        <v>45821</v>
+      </c>
+      <c r="B216" s="2">
+        <v>-154.19999999999999</v>
+      </c>
+      <c r="C216" s="10">
+        <v>3895.4499999999994</v>
+      </c>
+      <c r="D216" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="E216" s="4" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.95">
       <c r="A217" s="6"/>

--- a/banfei/balance.xlsx
+++ b/banfei/balance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zsx\Documents\gitee\minecraft\zhangshenxing.github.io\banfei\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B31B9722-ED3C-4BE2-8BEF-C81587E57E6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AC52398-FDFF-4323-B4CD-5B1AA1258C05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="231">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -938,6 +938,10 @@
   </si>
   <si>
     <t>中班父亲节活动经费均摊</t>
+  </si>
+  <si>
+    <t>购买A4塑封膜3包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1391,8 +1395,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F224"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A201" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D216" sqref="A216:D216"/>
+    <sheetView tabSelected="1" topLeftCell="A158" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E217" sqref="A166:E217"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.95"/>
@@ -5081,10 +5085,21 @@
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.95">
-      <c r="A217" s="6"/>
-      <c r="B217" s="2"/>
-      <c r="C217" s="10"/>
-      <c r="E217" s="4"/>
+      <c r="A217" s="6">
+        <v>45835</v>
+      </c>
+      <c r="B217" s="2">
+        <v>-61.4</v>
+      </c>
+      <c r="C217" s="10">
+        <v>3834.0499999999993</v>
+      </c>
+      <c r="D217" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="E217" s="4" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.95">
       <c r="A218" s="6"/>
